--- a/find_unmatch.xlsx
+++ b/find_unmatch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>タ--は--ち-F-ヒ-S-?-リ-ダ--ぴ--ょ-z--------------               [タはちFヒS?リダぴょz  &lt;&gt;  タぱちFにS?リダぴょz]</t>
   </si>
@@ -201,6 +201,262 @@
   </si>
   <si>
     <t>さ--ン-T-か--#g-%-_-さ-O--ゃ------------------          [さンTか#g%_さOゃ  &lt;&gt;  さンFか#g%_さt0ゃ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-.-と---ザ---ぃ-.-t--む--チ--W-p--た----------                                               [ m.とザぃ.tむチWpた   &lt;&gt;   m.とザぃ.tむチWpた ]</t>
+  </si>
+  <si>
+    <t>U-Q-#-し--ー-お--&amp;-じ--ワ--ク--ク---------------                                               [ UQ#しーお&amp;じワ-クク   &lt;&gt;   UQ#しーお&amp;じワ-クク ]</t>
+  </si>
+  <si>
+    <t>ぶ--C-チチ--ぺ--ー--ジ--Y-こ--o-ウ--み--d---------                                               [ ぶCチぺージYこoウみd   &lt;&gt;   ぶCチぺージYこoウみd ]</t>
+  </si>
+  <si>
+    <t>2-xB-ヴ--ぼ-ク-ぜ-K}-ぺ-9-_-------------------                                               [ 2xBヴぼクぜK}ぺ9_   &lt;&gt;   2*Bヴぼ7ぜKJペ9_ ]</t>
+  </si>
+  <si>
+    <t>テ--oペペ-チ--ギ-デデ-を--び-C-rヌ--=--------------                                               [ テoペチギデをびCrヌ=   &lt;&gt;   テoぺチギデをびCrヌ= ]</t>
+  </si>
+  <si>
+    <t>-フ---き---ヷ--L--り---ざ---ゃ---ア--\--ド--V----                                               [ フきヷLりざゃア\ドV   &lt;&gt;   フきヷLりざゃア\ドV ]</t>
+  </si>
+  <si>
+    <t>-サ---オ--B---ぞ---も---ド--み----し-;-/-t-/----                                               [ サオBぞもドみし;/t/   &lt;&gt;   サオBぞもドみし;/t/ ]</t>
+  </si>
+  <si>
+    <t>ヸ--a-ザ--コ--p-め--'-そ--カ-B-ぎ--へ------------                                               [ ヸaザコpめ'そカBぎへ   &lt;&gt;   ゔnザコpめ'そカBぎへ ]</t>
+  </si>
+  <si>
+    <t>-ぴ--づ---え--ザ--2--ぼ--ボ---ふ--ゴ--5--ー--u----                                               [ ぴづえザ2ぼボふゴ5ーu   &lt;&gt;   ぴづえザ2ぼボふゴ5ーu ]</t>
+  </si>
+  <si>
+    <t>correct: 434/1000       test loss: 0.9274       accuray: 0.4340</t>
+  </si>
+  <si>
+    <t>epoch: 1099/1200        elapsed time: 0:15:09   learning rate: [0.0005]</t>
+  </si>
+  <si>
+    <t>batch: 10/50    Time 0.162s (0.157s)    Speed 1234.6 samples/s  Data 0.049s (0.049s)    Loss 2.943076e-06</t>
+  </si>
+  <si>
+    <t>batch: 20/50    Time 0.158s (0.159s)    Speed 1265.8 samples/s  Data 0.050s (0.049s)    Loss 2.537598e-06</t>
+  </si>
+  <si>
+    <t>batch: 30/50    Time 0.260s (0.166s)    Speed 769.2 samples/s   Data 0.049s (0.050s)    Loss 2.795442e-06</t>
+  </si>
+  <si>
+    <t>batch: 40/50    Time 0.155s (0.165s)    Speed 1290.3 samples/s  Data 0.049s (0.050s)    Loss 3.534746e-06</t>
+  </si>
+  <si>
+    <t>batch: 50/50    Time 0.166s (0.163s)    Speed 1204.8 samples/s  Data 0.050s (0.050s)    Loss 3.040834e-06</t>
+  </si>
+  <si>
+    <t>ず---ト-ナ--|-ぺ---パ--ぬ-=-む--_-キ--H----------                                               [ ずトナ|ぺパぬ=む_キH   &lt;&gt;   ずトナ|ぺパぬ=む_キH ]</t>
+  </si>
+  <si>
+    <t>&amp;-ア--]ゼ-%-La-ぉ-ccヸ-r---------------------                                               [ &amp;ア]ゼ%Laぉcヸr   &lt;&gt;   &amp;ア]さ*Upaacギr ]</t>
+  </si>
+  <si>
+    <t>d-Z--ボ--ふ---ヹ--べ---ぜ--チ---エ---ぱ---ね------                                               [ dZボふヹべぜチエぱね   &lt;&gt;   dZボふヹべぜチエぱ:ね ]</t>
+  </si>
+  <si>
+    <t>c-\-Y---た---せ----セ---ゆ--g-$-vv-や---------                                               [ c\Yたせ-セゆg$vや   &lt;&gt;   c\Yたせ-セゆg$vや ]</t>
+  </si>
+  <si>
+    <t>-ほ-~-デ--け---モ--り-A-い--ぃ---や--の--ょ--------                                               [ ほ~デけモりAいぃやのょ   &lt;&gt;   ほ~デけモりAいぃやのょ ]</t>
+  </si>
+  <si>
+    <t>-け--ク--け--V-!-ヹ---だ--ボ--マ---で--ハ--フ------                                               [ けクけV!ヹだボマでハフ   &lt;&gt;   けクけV!ゔだボマでハフ ]</t>
+  </si>
+  <si>
+    <t>zoo-ぬ-=-い--ゲ--ド-ぶ--p-Y-ず--*--------------                                               [ zoぬ=-いゲドぶpYず*   &lt;&gt;   zoぬ=ハゲドぶrYず* ]</t>
+  </si>
+  <si>
+    <t>a-ぬ-/U-l-マ-る--ち--ミ--ト-4-き----------------                                               [ aぬ/Ulマるちミト4き   &lt;&gt;   aめ/U|マるちミト4き ]</t>
+  </si>
+  <si>
+    <t>-ろ--w-ナ---ゅ--t--]-G-c-スス--え--&amp;-----------                                               [ ろwナゅt]Gcスえ&amp;   &lt;&gt;   ろwナんt}]&amp;cスえ&amp; ]</t>
+  </si>
+  <si>
+    <t>ゅ--セ--ケ-e-%る--ヘ--4--セ-し--r---------------                                               [ ゅセケe%るヘ4セしr   &lt;&gt;   ゅセケe%るヘりセくjM ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>:-o-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Mistral"/>
+        <family val="4"/>
+      </rPr>
+      <t>-UQ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ノ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Mistral"/>
+        <family val="4"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>め</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Mistral"/>
+        <family val="4"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ひ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Mistral"/>
+        <family val="4"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ウ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Mistral"/>
+        <family val="4"/>
+      </rPr>
+      <t>-=--------------------                                               [ ':o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Mistral"/>
+        <family val="4"/>
+      </rPr>
+      <t>UQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ノめひウ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Mistral"/>
+        <family val="4"/>
+      </rPr>
+      <t>=   &lt;&gt;   ':o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Mistral"/>
+        <family val="4"/>
+      </rPr>
+      <t>UQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ノかひケ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Mistral"/>
+        <family val="4"/>
+      </rPr>
+      <t>=ヸ ]</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -208,7 +464,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +487,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Mistral"/>
+      <family val="4"/>
     </font>
   </fonts>
   <fills count="2">
@@ -255,11 +524,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,6 +819,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>240196</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>157037</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>155674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6427305" y="18105782"/>
+          <a:ext cx="2666667" cy="304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>347870</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>264711</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>221937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6534979" y="23696544"/>
+          <a:ext cx="2666667" cy="304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -813,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:M73"/>
+  <dimension ref="A4:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q71" sqref="Q71"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1114,6 +1462,141 @@
         <v>51</v>
       </c>
     </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B76" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B77" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B78" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B79" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="B80" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B81" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B82" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B83" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B84" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B85" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B86" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B87" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B88" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B89" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B90" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B91" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B92" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B93" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B94" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B95" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B96" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B97" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B98" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B99" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B100" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B101" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B102" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
